--- a/Code/Results/Cases/Case_0_67/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_67/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.16718631319806</v>
+        <v>13.57145098701222</v>
       </c>
       <c r="D2">
-        <v>3.794869623772172</v>
+        <v>6.5697511566171</v>
       </c>
       <c r="E2">
-        <v>11.37170108954579</v>
+        <v>13.95778867565</v>
       </c>
       <c r="F2">
-        <v>28.97131986363403</v>
+        <v>34.20796466813351</v>
       </c>
       <c r="G2">
-        <v>42.38662753328084</v>
+        <v>46.28226871543323</v>
       </c>
       <c r="H2">
-        <v>12.55213837490552</v>
+        <v>18.34431723902467</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>23.33950844392909</v>
+        <v>18.82246140342266</v>
       </c>
       <c r="L2">
-        <v>6.038234503851618</v>
+        <v>9.32667458863575</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.76150224334804</v>
+        <v>18.19516037576441</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>11.55458865186509</v>
+        <v>13.48164347717125</v>
       </c>
       <c r="D3">
-        <v>3.89831059529488</v>
+        <v>6.596071908262899</v>
       </c>
       <c r="E3">
-        <v>10.87388999491281</v>
+        <v>13.90521294087131</v>
       </c>
       <c r="F3">
-        <v>27.80704572266234</v>
+        <v>34.1219364324819</v>
       </c>
       <c r="G3">
-        <v>40.46679670291257</v>
+        <v>46.08486193093518</v>
       </c>
       <c r="H3">
-        <v>12.32638384472526</v>
+        <v>18.37656594735781</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>21.7052717218853</v>
+        <v>18.38193157570318</v>
       </c>
       <c r="L3">
-        <v>5.914321102311789</v>
+        <v>9.332968982502484</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.02688027213142</v>
+        <v>18.26770105833913</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>11.17282315691255</v>
+        <v>13.42983384161126</v>
       </c>
       <c r="D4">
-        <v>3.962172097343268</v>
+        <v>6.612877010537989</v>
       </c>
       <c r="E4">
-        <v>10.56694198078749</v>
+        <v>13.87627394787984</v>
       </c>
       <c r="F4">
-        <v>27.10628772877388</v>
+        <v>34.08032285050331</v>
       </c>
       <c r="G4">
-        <v>39.30535712959301</v>
+        <v>45.9808008251845</v>
       </c>
       <c r="H4">
-        <v>12.20028717200822</v>
+        <v>18.40086016960236</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>20.64771816967755</v>
+        <v>18.11034350240975</v>
       </c>
       <c r="L4">
-        <v>5.841390018959848</v>
+        <v>9.338469991508651</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.19220268438506</v>
+        <v>18.31423965276836</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>11.01600101340508</v>
+        <v>13.40957632625182</v>
       </c>
       <c r="D5">
-        <v>3.98831715270311</v>
+        <v>6.619887987324041</v>
       </c>
       <c r="E5">
-        <v>10.44166972829139</v>
+        <v>13.86532889080523</v>
       </c>
       <c r="F5">
-        <v>26.82450782553833</v>
+        <v>34.06618738580693</v>
       </c>
       <c r="G5">
-        <v>38.83685893680731</v>
+        <v>45.94272713960191</v>
       </c>
       <c r="H5">
-        <v>12.15195406541696</v>
+        <v>18.41188570315701</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>20.20298004032079</v>
+        <v>17.99955941111204</v>
       </c>
       <c r="L5">
-        <v>5.812462318997131</v>
+        <v>9.341122885524577</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.26022577530594</v>
+        <v>18.33370890699295</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10.9898908740324</v>
+        <v>13.40626471764774</v>
       </c>
       <c r="D6">
-        <v>3.992666751103104</v>
+        <v>6.621062008721415</v>
       </c>
       <c r="E6">
-        <v>10.42086139726051</v>
+        <v>13.86356286961531</v>
       </c>
       <c r="F6">
-        <v>26.77795448768152</v>
+        <v>34.06401071683383</v>
       </c>
       <c r="G6">
-        <v>38.75936896392112</v>
+        <v>45.93666712269791</v>
       </c>
       <c r="H6">
-        <v>12.14410984415721</v>
+        <v>18.41378432169954</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>20.12829485390458</v>
+        <v>17.98116215798089</v>
       </c>
       <c r="L6">
-        <v>5.807706737179184</v>
+        <v>9.341588221558379</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.27156191836555</v>
+        <v>18.33697228232026</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>11.17071301337691</v>
+        <v>13.429557156696</v>
       </c>
       <c r="D7">
-        <v>3.96252416669367</v>
+        <v>6.612970902973049</v>
       </c>
       <c r="E7">
-        <v>10.5652530820603</v>
+        <v>13.87612289743222</v>
       </c>
       <c r="F7">
-        <v>27.10247189021426</v>
+        <v>34.08012078437681</v>
       </c>
       <c r="G7">
-        <v>39.29901874726121</v>
+        <v>45.98026978890487</v>
       </c>
       <c r="H7">
-        <v>12.1996231061625</v>
+        <v>18.40100431317611</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>20.64177626997764</v>
+        <v>18.10884964902587</v>
       </c>
       <c r="L7">
-        <v>5.840996682346504</v>
+        <v>9.338504104909106</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.19311735452458</v>
+        <v>18.31450017716789</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>11.95721900035864</v>
+        <v>13.53980455102993</v>
       </c>
       <c r="D8">
-        <v>3.830484756190668</v>
+        <v>6.578693367682603</v>
       </c>
       <c r="E8">
-        <v>11.20039777675155</v>
+        <v>13.93897145824119</v>
       </c>
       <c r="F8">
-        <v>28.56708130271934</v>
+        <v>34.17597938630824</v>
       </c>
       <c r="G8">
-        <v>41.7213090765231</v>
+        <v>46.21065826766266</v>
       </c>
       <c r="H8">
-        <v>12.4716443943628</v>
+        <v>18.354501405858</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>22.78715445740036</v>
+        <v>18.67089369504777</v>
       </c>
       <c r="L8">
-        <v>5.994854582980791</v>
+        <v>9.328505176571888</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.85254481338823</v>
+        <v>18.21975880111536</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.44950800016008</v>
+        <v>13.78160960751934</v>
       </c>
       <c r="D9">
-        <v>3.572652449584416</v>
+        <v>6.516548030361411</v>
       </c>
       <c r="E9">
-        <v>12.43101085805677</v>
+        <v>14.08837333526263</v>
       </c>
       <c r="F9">
-        <v>31.54282779257677</v>
+        <v>34.45254881122508</v>
       </c>
       <c r="G9">
-        <v>46.59431639508468</v>
+        <v>46.79726910751912</v>
       </c>
       <c r="H9">
-        <v>13.10847559068344</v>
+        <v>18.29914866099062</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>26.57278233088208</v>
+        <v>19.75729905626624</v>
       </c>
       <c r="L9">
-        <v>6.321661028635811</v>
+        <v>9.321887760973713</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.20088591542754</v>
+        <v>18.04973931025036</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>14.5108341398649</v>
+        <v>13.97367028911398</v>
       </c>
       <c r="D10">
-        <v>3.381289923668871</v>
+        <v>6.473929052749505</v>
       </c>
       <c r="E10">
-        <v>13.32182297838613</v>
+        <v>14.21352606907382</v>
       </c>
       <c r="F10">
-        <v>33.78522319839904</v>
+        <v>34.70906210091638</v>
       </c>
       <c r="G10">
-        <v>50.23769243625916</v>
+        <v>47.30829347761023</v>
       </c>
       <c r="H10">
-        <v>13.64496095271675</v>
+        <v>18.28056482489473</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>29.10918134206197</v>
+        <v>20.53699256931422</v>
       </c>
       <c r="L10">
-        <v>6.577373632285282</v>
+        <v>9.324950504643704</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.72791245605391</v>
+        <v>17.93431464791041</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>14.98582418226527</v>
+        <v>14.06389087340775</v>
       </c>
       <c r="D11">
-        <v>3.293145781425571</v>
+        <v>6.455189010960082</v>
       </c>
       <c r="E11">
-        <v>13.72388499763729</v>
+        <v>14.27366324696787</v>
       </c>
       <c r="F11">
-        <v>34.81740501324807</v>
+        <v>34.83711304726128</v>
       </c>
       <c r="G11">
-        <v>51.90894210376873</v>
+        <v>47.55755003576834</v>
       </c>
       <c r="H11">
-        <v>13.90518489129716</v>
+        <v>18.27694852444758</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>30.21281652679047</v>
+        <v>20.8859726428966</v>
       </c>
       <c r="L11">
-        <v>6.697241343619694</v>
+        <v>9.328063150234385</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.51299375802301</v>
+        <v>17.88383892282582</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>15.1645947681632</v>
+        <v>14.09844001095476</v>
       </c>
       <c r="D12">
-        <v>3.259546675814549</v>
+        <v>6.448184882973342</v>
       </c>
       <c r="E12">
-        <v>13.87569397924709</v>
+        <v>14.29688327503047</v>
       </c>
       <c r="F12">
-        <v>35.21009821715811</v>
+        <v>34.88721232519542</v>
       </c>
       <c r="G12">
-        <v>52.54398176896166</v>
+        <v>47.65429088724133</v>
       </c>
       <c r="H12">
-        <v>14.00616621206163</v>
+        <v>18.27627754819133</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>30.62378788234946</v>
+        <v>21.01717204442344</v>
       </c>
       <c r="L12">
-        <v>6.743161095517257</v>
+        <v>9.329488684842516</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.43155062193451</v>
+        <v>17.86501523065189</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>15.12614135963374</v>
+        <v>14.09098254532692</v>
       </c>
       <c r="D13">
-        <v>3.266793771001579</v>
+        <v>6.44968925401925</v>
       </c>
       <c r="E13">
-        <v>13.84301835802463</v>
+        <v>14.29186275150074</v>
       </c>
       <c r="F13">
-        <v>35.12544103018902</v>
+        <v>34.87635140838341</v>
       </c>
       <c r="G13">
-        <v>52.40711340046897</v>
+        <v>47.63335241176232</v>
       </c>
       <c r="H13">
-        <v>13.98430756770215</v>
+        <v>18.2763909516772</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>30.53558248861835</v>
+        <v>20.9889602221643</v>
       </c>
       <c r="L13">
-        <v>6.733247567368084</v>
+        <v>9.329170699926159</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.44909501749141</v>
+        <v>17.86905636318856</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>15.00055347382907</v>
+        <v>14.06672569287845</v>
       </c>
       <c r="D14">
-        <v>3.290386383541513</v>
+        <v>6.45461093148967</v>
       </c>
       <c r="E14">
-        <v>13.73638310670435</v>
+        <v>14.27556468623266</v>
       </c>
       <c r="F14">
-        <v>34.84967465303873</v>
+        <v>34.84120264775933</v>
       </c>
       <c r="G14">
-        <v>51.9611420475389</v>
+        <v>47.56546218258472</v>
       </c>
       <c r="H14">
-        <v>13.91344307243689</v>
+        <v>18.2768793105821</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>30.24676508473675</v>
+        <v>20.8967862886527</v>
       </c>
       <c r="L14">
-        <v>6.701008462200744</v>
+        <v>9.328175485517102</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.50629511024681</v>
+        <v>17.88228447694939</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>14.92348566899567</v>
+        <v>14.05191698393129</v>
       </c>
       <c r="D15">
-        <v>3.304806747228815</v>
+        <v>6.457637600066104</v>
       </c>
       <c r="E15">
-        <v>13.6710091564221</v>
+        <v>14.26563950070359</v>
       </c>
       <c r="F15">
-        <v>34.68100202664466</v>
+        <v>34.81988179023484</v>
       </c>
       <c r="G15">
-        <v>51.68826279987175</v>
+        <v>47.52418193905644</v>
       </c>
       <c r="H15">
-        <v>13.87035795007275</v>
+        <v>18.27726947753769</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>30.06895915797502</v>
+        <v>20.84019941515877</v>
       </c>
       <c r="L15">
-        <v>6.681330592814619</v>
+        <v>9.327598019918202</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.54132134626731</v>
+        <v>17.8904248412021</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>14.47963658864048</v>
+        <v>13.96782937796532</v>
       </c>
       <c r="D16">
-        <v>3.387023104751161</v>
+        <v>6.475166720674573</v>
       </c>
       <c r="E16">
-        <v>13.2954838257744</v>
+        <v>14.20965931819968</v>
       </c>
       <c r="F16">
-        <v>33.71801674657818</v>
+        <v>34.70092026685781</v>
       </c>
       <c r="G16">
-        <v>50.12876318969862</v>
+        <v>47.29233669523259</v>
       </c>
       <c r="H16">
-        <v>13.62828962498175</v>
+        <v>18.28089875224891</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>29.03606839257289</v>
+        <v>20.51405963601406</v>
       </c>
       <c r="L16">
-        <v>6.569612741891977</v>
+        <v>9.324781653167454</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.7419550188912</v>
+        <v>17.93765408386598</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>14.20535550425308</v>
+        <v>13.91695676454551</v>
       </c>
       <c r="D17">
-        <v>3.437137551238582</v>
+        <v>6.486085553003484</v>
       </c>
       <c r="E17">
-        <v>13.06429783865072</v>
+        <v>14.17612876813031</v>
       </c>
       <c r="F17">
-        <v>33.13039152128249</v>
+        <v>34.63083476497768</v>
       </c>
       <c r="G17">
-        <v>49.17569110469301</v>
+        <v>47.1543653837258</v>
       </c>
       <c r="H17">
-        <v>13.48400822720717</v>
+        <v>18.28436634274221</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>28.38975010192144</v>
+        <v>20.31242546875508</v>
       </c>
       <c r="L17">
-        <v>6.501996100268219</v>
+        <v>9.323494037440746</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.86503565293016</v>
+        <v>17.96714675972008</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>14.04685716917752</v>
+        <v>13.88796612904851</v>
       </c>
       <c r="D18">
-        <v>3.465863503893332</v>
+        <v>6.492426774220193</v>
       </c>
       <c r="E18">
-        <v>12.93102440050981</v>
+        <v>14.1571453709264</v>
       </c>
       <c r="F18">
-        <v>32.79353395455612</v>
+        <v>34.59159455154342</v>
       </c>
       <c r="G18">
-        <v>48.62879385646013</v>
+        <v>47.07659226357895</v>
       </c>
       <c r="H18">
-        <v>13.4025362477468</v>
+        <v>18.28681600447562</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>28.01326386025465</v>
+        <v>20.19592094790791</v>
       </c>
       <c r="L18">
-        <v>6.463436722508666</v>
+        <v>9.322915304796954</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.93585696751747</v>
+        <v>17.98430148874661</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.993065215816</v>
+        <v>13.87819752415979</v>
       </c>
       <c r="D19">
-        <v>3.4755745033353</v>
+        <v>6.494584303440516</v>
       </c>
       <c r="E19">
-        <v>12.88584866237852</v>
+        <v>14.15077026697977</v>
       </c>
       <c r="F19">
-        <v>32.67967242817328</v>
+        <v>34.578493150815</v>
       </c>
       <c r="G19">
-        <v>48.44384145523703</v>
+        <v>47.05053350660186</v>
       </c>
       <c r="H19">
-        <v>13.37520815344847</v>
+        <v>18.28772350569523</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>27.88497015629083</v>
+        <v>20.15638766800898</v>
       </c>
       <c r="L19">
-        <v>6.450437727504539</v>
+        <v>9.322747167156113</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.95984342598483</v>
+        <v>17.99014269887855</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>14.23462961686569</v>
+        <v>13.922344484597</v>
       </c>
       <c r="D20">
-        <v>3.431813418472693</v>
+        <v>6.484916917474068</v>
       </c>
       <c r="E20">
-        <v>13.08893917894542</v>
+        <v>14.17966694069282</v>
       </c>
       <c r="F20">
-        <v>33.19282803774691</v>
+        <v>34.63818479852981</v>
       </c>
       <c r="G20">
-        <v>49.27701348114817</v>
+        <v>47.16888912027321</v>
       </c>
       <c r="H20">
-        <v>13.49920966238858</v>
+        <v>18.28395007938213</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>28.45904063239352</v>
+        <v>20.33394559204799</v>
       </c>
       <c r="L20">
-        <v>6.509159539972353</v>
+        <v>9.323614355915687</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.85193119079109</v>
+        <v>17.96398742586264</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>15.03747109293635</v>
+        <v>14.07384028792216</v>
       </c>
       <c r="D21">
-        <v>3.28346320427481</v>
+        <v>6.453162816349183</v>
       </c>
       <c r="E21">
-        <v>13.76771622905518</v>
+        <v>14.28033979227506</v>
       </c>
       <c r="F21">
-        <v>34.9306231548723</v>
+        <v>34.85148323113272</v>
       </c>
       <c r="G21">
-        <v>52.09207344025557</v>
+        <v>47.58533985239232</v>
       </c>
       <c r="H21">
-        <v>13.93419048136893</v>
+        <v>18.27671689213394</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>30.33178416304801</v>
+        <v>20.92388683568551</v>
       </c>
       <c r="L21">
-        <v>6.710463337422963</v>
+        <v>9.328461108754876</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.48949641760225</v>
+        <v>17.87839119270723</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>15.55581299265657</v>
+        <v>14.17508078834965</v>
       </c>
       <c r="D22">
-        <v>3.185184718980373</v>
+        <v>6.432947412241244</v>
       </c>
       <c r="E22">
-        <v>14.20878235105858</v>
+        <v>14.34873622676577</v>
       </c>
       <c r="F22">
-        <v>36.07713674374406</v>
+        <v>35.00025182268543</v>
       </c>
       <c r="G22">
-        <v>53.94474499697233</v>
+        <v>47.8711959589408</v>
       </c>
       <c r="H22">
-        <v>14.23276368407238</v>
+        <v>18.27606161151895</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>31.51535651785762</v>
+        <v>21.30384584991977</v>
       </c>
       <c r="L22">
-        <v>6.845121855267432</v>
+        <v>9.333067248573771</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.2522357318689</v>
+        <v>17.82414079456741</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>15.27972840525414</v>
+        <v>14.12085143668849</v>
       </c>
       <c r="D23">
-        <v>3.237782167626548</v>
+        <v>6.443687814263292</v>
       </c>
       <c r="E23">
-        <v>13.97359799934985</v>
+        <v>14.31199842330867</v>
       </c>
       <c r="F23">
-        <v>35.46418306603778</v>
+        <v>34.92000323776512</v>
       </c>
       <c r="G23">
-        <v>52.95466127262021</v>
+        <v>47.71739907967425</v>
       </c>
       <c r="H23">
-        <v>14.07206023102522</v>
+        <v>18.27603794308786</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>30.88726079140095</v>
+        <v>21.10160796199213</v>
       </c>
       <c r="L23">
-        <v>6.772960540879202</v>
+        <v>9.330477410494204</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.37893489478405</v>
+        <v>17.85294104174629</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>14.22139731651173</v>
+        <v>13.91990789485794</v>
       </c>
       <c r="D24">
-        <v>3.434220720538028</v>
+        <v>6.485445058658898</v>
       </c>
       <c r="E24">
-        <v>13.07779995566406</v>
+        <v>14.1780664168623</v>
       </c>
       <c r="F24">
-        <v>33.16459745405115</v>
+        <v>34.63485856687741</v>
       </c>
       <c r="G24">
-        <v>49.23120241763135</v>
+        <v>47.16231811115887</v>
       </c>
       <c r="H24">
-        <v>13.49233250046061</v>
+        <v>18.28413685151591</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>28.42772969446399</v>
+        <v>20.32421814810556</v>
       </c>
       <c r="L24">
-        <v>6.505919971140632</v>
+        <v>9.323559456749159</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.85785552244717</v>
+        <v>17.96541514067841</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.05176697238134</v>
+        <v>13.71357282499553</v>
       </c>
       <c r="D25">
-        <v>3.642536593457547</v>
+        <v>6.532822424983929</v>
       </c>
       <c r="E25">
-        <v>12.10023539770501</v>
+        <v>14.04520963879768</v>
       </c>
       <c r="F25">
-        <v>30.72766541266451</v>
+        <v>34.36830218028785</v>
       </c>
       <c r="G25">
-        <v>45.26452078487976</v>
+        <v>46.62433590629362</v>
       </c>
       <c r="H25">
-        <v>12.92455402091405</v>
+        <v>18.31026042467342</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>25.59260438937239</v>
+        <v>19.46603407518812</v>
       </c>
       <c r="L25">
-        <v>6.230543803818788</v>
+        <v>9.322286172935479</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.37584143002322</v>
+        <v>18.0940588814531</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_67/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_67/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.57145098701222</v>
+        <v>12.16718631319807</v>
       </c>
       <c r="D2">
-        <v>6.5697511566171</v>
+        <v>3.794869623772239</v>
       </c>
       <c r="E2">
-        <v>13.95778867565</v>
+        <v>11.37170108954579</v>
       </c>
       <c r="F2">
-        <v>34.20796466813351</v>
+        <v>28.97131986363395</v>
       </c>
       <c r="G2">
-        <v>46.28226871543323</v>
+        <v>42.38662753328079</v>
       </c>
       <c r="H2">
-        <v>18.34431723902467</v>
+        <v>12.55213837490543</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.82246140342266</v>
+        <v>23.33950844392915</v>
       </c>
       <c r="L2">
-        <v>9.32667458863575</v>
+        <v>6.038234503851636</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.19516037576441</v>
+        <v>11.76150224334801</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.48164347717125</v>
+        <v>11.55458865186517</v>
       </c>
       <c r="D3">
-        <v>6.596071908262899</v>
+        <v>3.898310595294878</v>
       </c>
       <c r="E3">
-        <v>13.90521294087131</v>
+        <v>10.87388999491284</v>
       </c>
       <c r="F3">
-        <v>34.1219364324819</v>
+        <v>27.80704572266225</v>
       </c>
       <c r="G3">
-        <v>46.08486193093518</v>
+        <v>40.46679670291246</v>
       </c>
       <c r="H3">
-        <v>18.37656594735781</v>
+        <v>12.32638384472522</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18.38193157570318</v>
+        <v>21.70527172188532</v>
       </c>
       <c r="L3">
-        <v>9.332968982502484</v>
+        <v>5.914321102311782</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.26770105833913</v>
+        <v>12.02688027213139</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>13.42983384161126</v>
+        <v>11.17282315691253</v>
       </c>
       <c r="D4">
-        <v>6.612877010537989</v>
+        <v>3.962172097343402</v>
       </c>
       <c r="E4">
-        <v>13.87627394787984</v>
+        <v>10.56694198078747</v>
       </c>
       <c r="F4">
-        <v>34.08032285050331</v>
+        <v>27.1062877287737</v>
       </c>
       <c r="G4">
-        <v>45.9808008251845</v>
+        <v>39.30535712959285</v>
       </c>
       <c r="H4">
-        <v>18.40086016960236</v>
+        <v>12.20028717200814</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.11034350240975</v>
+        <v>20.64771816967761</v>
       </c>
       <c r="L4">
-        <v>9.338469991508651</v>
+        <v>5.841390018959852</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.31423965276836</v>
+        <v>12.19220268438499</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13.40957632625182</v>
+        <v>11.01600101340512</v>
       </c>
       <c r="D5">
-        <v>6.619887987324041</v>
+        <v>3.988317152703109</v>
       </c>
       <c r="E5">
-        <v>13.86532889080523</v>
+        <v>10.44166972829143</v>
       </c>
       <c r="F5">
-        <v>34.06618738580693</v>
+        <v>26.82450782553828</v>
       </c>
       <c r="G5">
-        <v>45.94272713960191</v>
+        <v>38.83685893680721</v>
       </c>
       <c r="H5">
-        <v>18.41188570315701</v>
+        <v>12.15195406541697</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.99955941111204</v>
+        <v>20.20298004032082</v>
       </c>
       <c r="L5">
-        <v>9.341122885524577</v>
+        <v>5.812462318997131</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.33370890699295</v>
+        <v>12.26022577530594</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.40626471764774</v>
+        <v>10.98989087403246</v>
       </c>
       <c r="D6">
-        <v>6.621062008721415</v>
+        <v>3.992666751103239</v>
       </c>
       <c r="E6">
-        <v>13.86356286961531</v>
+        <v>10.42086139726045</v>
       </c>
       <c r="F6">
-        <v>34.06401071683383</v>
+        <v>26.77795448768151</v>
       </c>
       <c r="G6">
-        <v>45.93666712269791</v>
+        <v>38.75936896392116</v>
       </c>
       <c r="H6">
-        <v>18.41378432169954</v>
+        <v>12.14410984415721</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.98116215798089</v>
+        <v>20.12829485390459</v>
       </c>
       <c r="L6">
-        <v>9.341588221558379</v>
+        <v>5.807706737179064</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.33697228232026</v>
+        <v>12.27156191836562</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>13.429557156696</v>
+        <v>11.17071301337688</v>
       </c>
       <c r="D7">
-        <v>6.612970902973049</v>
+        <v>3.962524166693872</v>
       </c>
       <c r="E7">
-        <v>13.87612289743222</v>
+        <v>10.56525308206024</v>
       </c>
       <c r="F7">
-        <v>34.08012078437681</v>
+        <v>27.10247189021439</v>
       </c>
       <c r="G7">
-        <v>45.98026978890487</v>
+        <v>39.29901874726141</v>
       </c>
       <c r="H7">
-        <v>18.40100431317611</v>
+        <v>12.19962310616262</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>18.10884964902587</v>
+        <v>20.64177626997756</v>
       </c>
       <c r="L7">
-        <v>9.338504104909106</v>
+        <v>5.840996682346479</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.31450017716789</v>
+        <v>12.19311735452461</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.53980455102993</v>
+        <v>11.95721900035865</v>
       </c>
       <c r="D8">
-        <v>6.578693367682603</v>
+        <v>3.830484756190668</v>
       </c>
       <c r="E8">
-        <v>13.93897145824119</v>
+        <v>11.20039777675156</v>
       </c>
       <c r="F8">
-        <v>34.17597938630824</v>
+        <v>28.56708130271943</v>
       </c>
       <c r="G8">
-        <v>46.21065826766266</v>
+        <v>41.72130907652314</v>
       </c>
       <c r="H8">
-        <v>18.354501405858</v>
+        <v>12.47164439436291</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.67089369504777</v>
+        <v>22.78715445740031</v>
       </c>
       <c r="L8">
-        <v>9.328505176571888</v>
+        <v>5.994854582980778</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.21975880111536</v>
+        <v>11.85254481338833</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.78160960751934</v>
+        <v>13.44950800016016</v>
       </c>
       <c r="D9">
-        <v>6.516548030361411</v>
+        <v>3.572652449584282</v>
       </c>
       <c r="E9">
-        <v>14.08837333526263</v>
+        <v>12.43101085805681</v>
       </c>
       <c r="F9">
-        <v>34.45254881122508</v>
+        <v>31.54282779257682</v>
       </c>
       <c r="G9">
-        <v>46.79726910751912</v>
+        <v>46.59431639508477</v>
       </c>
       <c r="H9">
-        <v>18.29914866099062</v>
+        <v>13.10847559068346</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>19.75729905626624</v>
+        <v>26.5727823308821</v>
       </c>
       <c r="L9">
-        <v>9.321887760973713</v>
+        <v>6.32166102863589</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.04973931025036</v>
+        <v>11.20088591542754</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.97367028911398</v>
+        <v>14.51083413986492</v>
       </c>
       <c r="D10">
-        <v>6.473929052749505</v>
+        <v>3.381289923668804</v>
       </c>
       <c r="E10">
-        <v>14.21352606907382</v>
+        <v>13.32182297838615</v>
       </c>
       <c r="F10">
-        <v>34.70906210091638</v>
+        <v>33.78522319839904</v>
       </c>
       <c r="G10">
-        <v>47.30829347761023</v>
+        <v>50.23769243625921</v>
       </c>
       <c r="H10">
-        <v>18.28056482489473</v>
+        <v>13.64496095271676</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.53699256931422</v>
+        <v>29.10918134206197</v>
       </c>
       <c r="L10">
-        <v>9.324950504643704</v>
+        <v>6.577373632285282</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.93431464791041</v>
+        <v>10.72791245605387</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>14.06389087340775</v>
+        <v>14.98582418226529</v>
       </c>
       <c r="D11">
-        <v>6.455189010960082</v>
+        <v>3.293145781425503</v>
       </c>
       <c r="E11">
-        <v>14.27366324696787</v>
+        <v>13.7238849976373</v>
       </c>
       <c r="F11">
-        <v>34.83711304726128</v>
+        <v>34.81740501324816</v>
       </c>
       <c r="G11">
-        <v>47.55755003576834</v>
+        <v>51.90894210376882</v>
       </c>
       <c r="H11">
-        <v>18.27694852444758</v>
+        <v>13.9051848912972</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.8859726428966</v>
+        <v>30.21281652679046</v>
       </c>
       <c r="L11">
-        <v>9.328063150234385</v>
+        <v>6.697241343619694</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.88383892282582</v>
+        <v>10.51299375802304</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>14.09844001095476</v>
+        <v>15.16459476816324</v>
       </c>
       <c r="D12">
-        <v>6.448184882973342</v>
+        <v>3.25954667581455</v>
       </c>
       <c r="E12">
-        <v>14.29688327503047</v>
+        <v>13.8756939792471</v>
       </c>
       <c r="F12">
-        <v>34.88721232519542</v>
+        <v>35.21009821715809</v>
       </c>
       <c r="G12">
-        <v>47.65429088724133</v>
+        <v>52.54398176896161</v>
       </c>
       <c r="H12">
-        <v>18.27627754819133</v>
+        <v>14.00616621206162</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.01717204442344</v>
+        <v>30.62378788234946</v>
       </c>
       <c r="L12">
-        <v>9.329488684842516</v>
+        <v>6.743161095517227</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.86501523065189</v>
+        <v>10.43155062193451</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>14.09098254532692</v>
+        <v>15.12614135963376</v>
       </c>
       <c r="D13">
-        <v>6.44968925401925</v>
+        <v>3.266793771001714</v>
       </c>
       <c r="E13">
-        <v>14.29186275150074</v>
+        <v>13.84301835802466</v>
       </c>
       <c r="F13">
-        <v>34.87635140838341</v>
+        <v>35.12544103018904</v>
       </c>
       <c r="G13">
-        <v>47.63335241176232</v>
+        <v>52.40711340046906</v>
       </c>
       <c r="H13">
-        <v>18.2763909516772</v>
+        <v>13.98430756770216</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.9889602221643</v>
+        <v>30.53558248861842</v>
       </c>
       <c r="L13">
-        <v>9.329170699926159</v>
+        <v>6.733247567368123</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.86905636318856</v>
+        <v>10.44909501749137</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>14.06672569287845</v>
+        <v>15.00055347382908</v>
       </c>
       <c r="D14">
-        <v>6.45461093148967</v>
+        <v>3.290386383541378</v>
       </c>
       <c r="E14">
-        <v>14.27556468623266</v>
+        <v>13.73638310670436</v>
       </c>
       <c r="F14">
-        <v>34.84120264775933</v>
+        <v>34.84967465303875</v>
       </c>
       <c r="G14">
-        <v>47.56546218258472</v>
+        <v>51.96114204753892</v>
       </c>
       <c r="H14">
-        <v>18.2768793105821</v>
+        <v>13.91344307243688</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.8967862886527</v>
+        <v>30.24676508473675</v>
       </c>
       <c r="L14">
-        <v>9.328175485517102</v>
+        <v>6.701008462200757</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.88228447694939</v>
+        <v>10.50629511024681</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>14.05191698393129</v>
+        <v>14.92348566899567</v>
       </c>
       <c r="D15">
-        <v>6.457637600066104</v>
+        <v>3.30480674722895</v>
       </c>
       <c r="E15">
-        <v>14.26563950070359</v>
+        <v>13.67100915642209</v>
       </c>
       <c r="F15">
-        <v>34.81988179023484</v>
+        <v>34.68100202664466</v>
       </c>
       <c r="G15">
-        <v>47.52418193905644</v>
+        <v>51.68826279987175</v>
       </c>
       <c r="H15">
-        <v>18.27726947753769</v>
+        <v>13.87035795007276</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.84019941515877</v>
+        <v>30.06895915797505</v>
       </c>
       <c r="L15">
-        <v>9.327598019918202</v>
+        <v>6.681330592814598</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.8904248412021</v>
+        <v>10.54132134626731</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.96782937796532</v>
+        <v>14.47963658864051</v>
       </c>
       <c r="D16">
-        <v>6.475166720674573</v>
+        <v>3.387023104751093</v>
       </c>
       <c r="E16">
-        <v>14.20965931819968</v>
+        <v>13.29548382577445</v>
       </c>
       <c r="F16">
-        <v>34.70092026685781</v>
+        <v>33.71801674657824</v>
       </c>
       <c r="G16">
-        <v>47.29233669523259</v>
+        <v>50.12876318969867</v>
       </c>
       <c r="H16">
-        <v>18.28089875224891</v>
+        <v>13.62828962498179</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.51405963601406</v>
+        <v>29.0360683925729</v>
       </c>
       <c r="L16">
-        <v>9.324781653167454</v>
+        <v>6.569612741892035</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.93765408386598</v>
+        <v>10.74195501889119</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>13.91695676454551</v>
+        <v>14.20535550425306</v>
       </c>
       <c r="D17">
-        <v>6.486085553003484</v>
+        <v>3.437137551238582</v>
       </c>
       <c r="E17">
-        <v>14.17612876813031</v>
+        <v>13.06429783865073</v>
       </c>
       <c r="F17">
-        <v>34.63083476497768</v>
+        <v>33.13039152128251</v>
       </c>
       <c r="G17">
-        <v>47.1543653837258</v>
+        <v>49.17569110469302</v>
       </c>
       <c r="H17">
-        <v>18.28436634274221</v>
+        <v>13.48400822720721</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.31242546875508</v>
+        <v>28.3897501019214</v>
       </c>
       <c r="L17">
-        <v>9.323494037440746</v>
+        <v>6.501996100268236</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.96714675972008</v>
+        <v>10.8650356529302</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.88796612904851</v>
+        <v>14.04685716917752</v>
       </c>
       <c r="D18">
-        <v>6.492426774220193</v>
+        <v>3.4658635038934</v>
       </c>
       <c r="E18">
-        <v>14.1571453709264</v>
+        <v>12.93102440050983</v>
       </c>
       <c r="F18">
-        <v>34.59159455154342</v>
+        <v>32.79353395455612</v>
       </c>
       <c r="G18">
-        <v>47.07659226357895</v>
+        <v>48.62879385646015</v>
       </c>
       <c r="H18">
-        <v>18.28681600447562</v>
+        <v>13.40253624774683</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.19592094790791</v>
+        <v>28.01326386025461</v>
       </c>
       <c r="L18">
-        <v>9.322915304796954</v>
+        <v>6.463436722508684</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.98430148874661</v>
+        <v>10.9358569675175</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.87819752415979</v>
+        <v>13.99306521581599</v>
       </c>
       <c r="D19">
-        <v>6.494584303440516</v>
+        <v>3.475574503335433</v>
       </c>
       <c r="E19">
-        <v>14.15077026697977</v>
+        <v>12.88584866237851</v>
       </c>
       <c r="F19">
-        <v>34.578493150815</v>
+        <v>32.67967242817327</v>
       </c>
       <c r="G19">
-        <v>47.05053350660186</v>
+        <v>48.44384145523705</v>
       </c>
       <c r="H19">
-        <v>18.28772350569523</v>
+        <v>13.37520815344848</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.15638766800898</v>
+        <v>27.88497015629083</v>
       </c>
       <c r="L19">
-        <v>9.322747167156113</v>
+        <v>6.450437727504506</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.99014269887855</v>
+        <v>10.95984342598479</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.922344484597</v>
+        <v>14.23462961686571</v>
       </c>
       <c r="D20">
-        <v>6.484916917474068</v>
+        <v>3.431813418472693</v>
       </c>
       <c r="E20">
-        <v>14.17966694069282</v>
+        <v>13.08893917894545</v>
       </c>
       <c r="F20">
-        <v>34.63818479852981</v>
+        <v>33.19282803774689</v>
       </c>
       <c r="G20">
-        <v>47.16888912027321</v>
+        <v>49.27701348114812</v>
       </c>
       <c r="H20">
-        <v>18.28395007938213</v>
+        <v>13.49920966238858</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>20.33394559204799</v>
+        <v>28.4590406323935</v>
       </c>
       <c r="L20">
-        <v>9.323614355915687</v>
+        <v>6.509159539972392</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.96398742586264</v>
+        <v>10.85193119079106</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>14.07384028792216</v>
+        <v>15.03747109293638</v>
       </c>
       <c r="D21">
-        <v>6.453162816349183</v>
+        <v>3.283463204275077</v>
       </c>
       <c r="E21">
-        <v>14.28033979227506</v>
+        <v>13.7677162290552</v>
       </c>
       <c r="F21">
-        <v>34.85148323113272</v>
+        <v>34.93062315487227</v>
       </c>
       <c r="G21">
-        <v>47.58533985239232</v>
+        <v>52.09207344025548</v>
       </c>
       <c r="H21">
-        <v>18.27671689213394</v>
+        <v>13.93419048136894</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.92388683568551</v>
+        <v>30.33178416304794</v>
       </c>
       <c r="L21">
-        <v>9.328461108754876</v>
+        <v>6.710463337422951</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.87839119270723</v>
+        <v>10.48949641760228</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>14.17508078834965</v>
+        <v>15.55581299265662</v>
       </c>
       <c r="D22">
-        <v>6.432947412241244</v>
+        <v>3.185184718980305</v>
       </c>
       <c r="E22">
-        <v>14.34873622676577</v>
+        <v>14.20878235105858</v>
       </c>
       <c r="F22">
-        <v>35.00025182268543</v>
+        <v>36.07713674374413</v>
       </c>
       <c r="G22">
-        <v>47.8711959589408</v>
+        <v>53.94474499697252</v>
       </c>
       <c r="H22">
-        <v>18.27606161151895</v>
+        <v>14.23276368407239</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>21.30384584991977</v>
+        <v>31.51535651785766</v>
       </c>
       <c r="L22">
-        <v>9.333067248573771</v>
+        <v>6.845121855267414</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.82414079456741</v>
+        <v>10.25223573186886</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>14.12085143668849</v>
+        <v>15.27972840525417</v>
       </c>
       <c r="D23">
-        <v>6.443687814263292</v>
+        <v>3.237782167626615</v>
       </c>
       <c r="E23">
-        <v>14.31199842330867</v>
+        <v>13.97359799934985</v>
       </c>
       <c r="F23">
-        <v>34.92000323776512</v>
+        <v>35.46418306603778</v>
       </c>
       <c r="G23">
-        <v>47.71739907967425</v>
+        <v>52.95466127262026</v>
       </c>
       <c r="H23">
-        <v>18.27603794308786</v>
+        <v>14.07206023102521</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.10160796199213</v>
+        <v>30.887260791401</v>
       </c>
       <c r="L23">
-        <v>9.330477410494204</v>
+        <v>6.772960540879189</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.85294104174629</v>
+        <v>10.37893489478395</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>13.91990789485794</v>
+        <v>14.22139731651173</v>
       </c>
       <c r="D24">
-        <v>6.485445058658898</v>
+        <v>3.434220720538162</v>
       </c>
       <c r="E24">
-        <v>14.1780664168623</v>
+        <v>13.07779995566402</v>
       </c>
       <c r="F24">
-        <v>34.63485856687741</v>
+        <v>33.16459745405116</v>
       </c>
       <c r="G24">
-        <v>47.16231811115887</v>
+        <v>49.23120241763136</v>
       </c>
       <c r="H24">
-        <v>18.28413685151591</v>
+        <v>13.49233250046061</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.32421814810556</v>
+        <v>28.42772969446399</v>
       </c>
       <c r="L24">
-        <v>9.323559456749159</v>
+        <v>6.505919971140601</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.96541514067841</v>
+        <v>10.85785552244717</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.71357282499553</v>
+        <v>13.05176697238135</v>
       </c>
       <c r="D25">
-        <v>6.532822424983929</v>
+        <v>3.642536593457747</v>
       </c>
       <c r="E25">
-        <v>14.04520963879768</v>
+        <v>12.100235397705</v>
       </c>
       <c r="F25">
-        <v>34.36830218028785</v>
+        <v>30.72766541266454</v>
       </c>
       <c r="G25">
-        <v>46.62433590629362</v>
+        <v>45.26452078487985</v>
       </c>
       <c r="H25">
-        <v>18.31026042467342</v>
+        <v>12.92455402091409</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>19.46603407518812</v>
+        <v>25.59260438937235</v>
       </c>
       <c r="L25">
-        <v>9.322286172935479</v>
+        <v>6.230543803818763</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.0940588814531</v>
+        <v>11.37584143002328</v>
       </c>
       <c r="O25">
         <v>0</v>
